--- a/trunk/CSOF5203 Arquitecturas Empresariales/Segunda Entrega/ArquitecturaAplicaciones.xlsx
+++ b/trunk/CSOF5203 Arquitecturas Empresariales/Segunda Entrega/ArquitecturaAplicaciones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="11715" windowHeight="4935" tabRatio="764" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="11715" windowHeight="4935" tabRatio="764" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogo de Apps" sheetId="4" r:id="rId1"/>
@@ -18,12 +18,16 @@
     <sheet name="Definición de Proyectos" sheetId="6" r:id="rId9"/>
     <sheet name="Cstos" sheetId="11" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Funcionalidad Aplicacion AS IS'!$D$1:$M$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Funcionalidad Aplicación TOBE'!$E$1:$Q$112</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="253">
   <si>
     <t>Adjuntar documentos de soporte</t>
   </si>
@@ -779,6 +783,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>REPETIDO</t>
   </si>
 </sst>
 </file>
@@ -788,7 +795,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0_);[Red]\(&quot;$&quot;\ #,##0\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,8 +865,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -900,6 +928,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1041,7 +1075,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1201,6 +1235,44 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1208,6 +1280,12 @@
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1227,12 +1305,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1279,8 +1351,8 @@
   <autoFilter ref="A1:D14"/>
   <tableColumns count="4">
     <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="Nombre" dataDxfId="1"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="0"/>
+    <tableColumn id="2" name="Nombre" dataDxfId="3"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="2"/>
     <tableColumn id="4" name="Tipo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1292,8 +1364,8 @@
   <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Identificador"/>
-    <tableColumn id="2" name="Nombre Proyecto" dataDxfId="3"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="2"/>
+    <tableColumn id="2" name="Nombre Proyecto" dataDxfId="1"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="0"/>
     <tableColumn id="4" name="Brechas Asociadas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1723,7 +1795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -1877,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2099,9 +2171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:M54"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3413,6 +3485,7 @@
       <c r="B55" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="D1:M55"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3422,9 +3495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q112"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:Q112"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3433,7 +3506,11 @@
     <col min="2" max="2" width="28.85546875" style="19" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.28515625" customWidth="1"/>
     <col min="16" max="17" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3505,20 +3582,20 @@
         <v>0</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="75" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="11"/>
@@ -3532,18 +3609,20 @@
         <v>1</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="76" t="s">
+        <v>39</v>
+      </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="11"/>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N3" s="11"/>
@@ -3563,14 +3642,14 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="J4" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N4" s="11"/>
@@ -3590,14 +3669,14 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="J5" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L5" s="11"/>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N5" s="11"/>
@@ -3618,7 +3697,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L6" s="11"/>
@@ -3641,7 +3720,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L7" s="11"/>
@@ -3664,7 +3743,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L8" s="11"/>
@@ -3687,7 +3766,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="11"/>
@@ -3709,16 +3788,16 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="11" t="s">
+      <c r="J10" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N10" s="11"/>
@@ -3738,16 +3817,16 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="11" t="s">
+      <c r="J11" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N11" s="11"/>
@@ -3767,16 +3846,16 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="11" t="s">
+      <c r="J12" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N12" s="11"/>
@@ -3797,7 +3876,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="11"/>
@@ -3818,7 +3897,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L14" s="11"/>
@@ -3839,7 +3918,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="11"/>
@@ -3862,7 +3941,7 @@
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L16" s="11"/>
@@ -3885,7 +3964,7 @@
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L17" s="11"/>
@@ -3899,14 +3978,14 @@
         <v>7</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="78"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="89" t="s">
         <v>39</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="11"/>
@@ -3924,7 +4003,7 @@
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="77" t="s">
         <v>39</v>
       </c>
       <c r="L19" s="28"/>
@@ -3945,7 +4024,7 @@
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="28" t="s">
+      <c r="K20" s="77" t="s">
         <v>39</v>
       </c>
       <c r="L20" s="28"/>
@@ -3966,7 +4045,7 @@
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="77" t="s">
         <v>39</v>
       </c>
       <c r="L21" s="28"/>
@@ -3991,7 +4070,7 @@
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="28" t="s">
+      <c r="K22" s="77" t="s">
         <v>39</v>
       </c>
       <c r="L22" s="28"/>
@@ -4020,11 +4099,11 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L23" s="11"/>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N23" s="11"/>
@@ -4038,16 +4117,18 @@
         <v>43</v>
       </c>
       <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L24" s="11"/>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N24" s="11"/>
@@ -4067,10 +4148,10 @@
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="11" t="s">
+      <c r="J25" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L25" s="11"/>
@@ -4086,14 +4167,16 @@
         <v>43</v>
       </c>
       <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N26" s="11"/>
@@ -4113,14 +4196,14 @@
       <c r="I27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="11" t="s">
+      <c r="J27" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L27" s="11"/>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N27" s="11"/>
@@ -4138,14 +4221,14 @@
       <c r="I28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="11" t="s">
+      <c r="J28" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L28" s="11"/>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N28" s="11"/>
@@ -4159,20 +4242,20 @@
         <v>43</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="11" t="s">
+      <c r="J29" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L29" s="11"/>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N29" s="11"/>
@@ -4186,16 +4269,17 @@
         <v>43</v>
       </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11" t="s">
+      <c r="I30" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="75" t="s">
         <v>39</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N30" s="11"/>
@@ -4216,7 +4300,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L31" s="11"/>
@@ -4239,7 +4323,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L32" s="11"/>
@@ -4261,65 +4345,68 @@
         <v>39</v>
       </c>
       <c r="I33" s="11"/>
-      <c r="J33" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="11" t="s">
+      <c r="J33" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L33" s="11"/>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="19"/>
-      <c r="C34" s="24" t="s">
+    <row r="34" spans="1:16" s="79" customFormat="1">
+      <c r="B34" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="11"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="19"/>
-      <c r="C35" s="24" t="s">
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" s="82"/>
+      <c r="M34" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="82"/>
+    </row>
+    <row r="35" spans="1:16" s="79" customFormat="1">
+      <c r="B35" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N35" s="11"/>
+      <c r="E35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" s="82"/>
     </row>
     <row r="36" spans="1:16" s="19" customFormat="1">
       <c r="C36" s="30" t="s">
@@ -4336,7 +4423,7 @@
         <v>39</v>
       </c>
       <c r="J36" s="11"/>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L36" s="11"/>
@@ -4351,14 +4438,15 @@
         <v>43</v>
       </c>
       <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="I37" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N37" s="11"/>
@@ -4376,7 +4464,7 @@
         <v>39</v>
       </c>
       <c r="J38" s="11"/>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L38" s="11"/>
@@ -4396,7 +4484,7 @@
         <v>39</v>
       </c>
       <c r="J39" s="11"/>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L39" s="11"/>
@@ -4416,7 +4504,7 @@
         <v>39</v>
       </c>
       <c r="J40" s="11"/>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L40" s="11"/>
@@ -4432,11 +4520,13 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="I41" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
-      <c r="M41" s="11" t="s">
+      <c r="M41" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N41" s="11"/>
@@ -4450,11 +4540,13 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="I42" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N42" s="11"/>
@@ -4531,7 +4623,7 @@
         <v>39</v>
       </c>
       <c r="L46" s="11"/>
-      <c r="M46" s="11" t="s">
+      <c r="M46" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N46" s="11"/>
@@ -4547,7 +4639,7 @@
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L47" s="11"/>
@@ -4590,20 +4682,20 @@
         <v>43</v>
       </c>
       <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="F49" s="78"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J49" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11" t="s">
+      <c r="J49" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49" s="75"/>
+      <c r="M49" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N49" s="11"/>
@@ -4625,11 +4717,11 @@
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
+      <c r="K50" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
       <c r="N50" s="11"/>
     </row>
     <row r="51" spans="1:14">
@@ -4648,11 +4740,11 @@
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11" t="s">
+      <c r="K51" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N51" s="11"/>
@@ -4673,11 +4765,11 @@
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11" t="s">
+      <c r="K52" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L52" s="75"/>
+      <c r="M52" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N52" s="11"/>
@@ -4698,11 +4790,11 @@
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11" t="s">
+      <c r="K53" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N53" s="11"/>
@@ -4725,14 +4817,14 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11" t="s">
+      <c r="J54" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K54" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N54" s="11"/>
@@ -4750,14 +4842,14 @@
       <c r="I55" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J55" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11" t="s">
+      <c r="J55" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K55" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L55" s="75"/>
+      <c r="M55" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N55" s="11"/>
@@ -4776,11 +4868,11 @@
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11" t="s">
+      <c r="K56" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N56" s="11"/>
@@ -4798,14 +4890,14 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11" t="s">
+      <c r="J57" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K57" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L57" s="75"/>
+      <c r="M57" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N57" s="11"/>
@@ -4845,11 +4937,11 @@
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11" t="s">
+      <c r="K59" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L59" s="75"/>
+      <c r="M59" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N59" s="11"/>
@@ -4869,14 +4961,14 @@
         <v>39</v>
       </c>
       <c r="I60" s="11"/>
-      <c r="J60" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11" t="s">
+      <c r="J60" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K60" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L60" s="75"/>
+      <c r="M60" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N60" s="11"/>
@@ -4896,8 +4988,8 @@
       <c r="I61" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11" t="s">
+      <c r="J61" s="75"/>
+      <c r="K61" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L61" s="11"/>
@@ -4917,8 +5009,8 @@
       <c r="I62" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11" t="s">
+      <c r="J62" s="75"/>
+      <c r="K62" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L62" s="11"/>
@@ -4945,8 +5037,8 @@
         <v>39</v>
       </c>
       <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11" t="s">
+      <c r="J63" s="75"/>
+      <c r="K63" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L63" s="11"/>
@@ -4968,10 +5060,10 @@
         <v>39</v>
       </c>
       <c r="I64" s="11"/>
-      <c r="J64" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K64" s="11" t="s">
+      <c r="J64" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L64" s="11"/>
@@ -4993,10 +5085,10 @@
         <v>39</v>
       </c>
       <c r="I65" s="11"/>
-      <c r="J65" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K65" s="11" t="s">
+      <c r="J65" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K65" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L65" s="11"/>
@@ -5018,10 +5110,10 @@
         <v>39</v>
       </c>
       <c r="I66" s="11"/>
-      <c r="J66" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K66" s="11" t="s">
+      <c r="J66" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K66" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L66" s="11"/>
@@ -5043,10 +5135,10 @@
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K67" s="11" t="s">
+      <c r="J67" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K67" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L67" s="11"/>
@@ -5069,11 +5161,11 @@
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11" t="s">
+      <c r="K68" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L68" s="75"/>
+      <c r="M68" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N68" s="11"/>
@@ -5089,7 +5181,7 @@
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="11" t="s">
+      <c r="K69" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L69" s="11"/>
@@ -5112,7 +5204,7 @@
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="11" t="s">
+      <c r="K70" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L70" s="11"/>
@@ -5130,7 +5222,7 @@
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="11" t="s">
+      <c r="K71" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L71" s="11"/>
@@ -5161,11 +5253,11 @@
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11" t="s">
+      <c r="K72" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L72" s="75"/>
+      <c r="M72" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N72" s="11"/>
@@ -5184,11 +5276,11 @@
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11" t="s">
+      <c r="K73" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L73" s="75"/>
+      <c r="M73" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N73" s="11"/>
@@ -5207,11 +5299,11 @@
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11" t="s">
+      <c r="K74" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L74" s="75"/>
+      <c r="M74" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N74" s="11"/>
@@ -5225,16 +5317,18 @@
         <v>7</v>
       </c>
       <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
+      <c r="F75" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11" t="s">
+      <c r="K75" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L75" s="75"/>
+      <c r="M75" s="75" t="s">
         <v>39</v>
       </c>
       <c r="N75" s="11"/>
@@ -5249,10 +5343,10 @@
       <c r="F76" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J76" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K76" s="11" t="s">
+      <c r="J76" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="K76" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5263,10 +5357,10 @@
       <c r="F77" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J77" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K77" s="11" t="s">
+      <c r="J77" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="K77" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5277,10 +5371,10 @@
       <c r="F78" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J78" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K78" s="11" t="s">
+      <c r="J78" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="K78" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5291,10 +5385,10 @@
       <c r="F79" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J79" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K79" s="11" t="s">
+      <c r="J79" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="K79" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5306,13 +5400,15 @@
         <v>144</v>
       </c>
       <c r="F80" s="11"/>
-      <c r="G80" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J80" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K80" s="11" t="s">
+      <c r="G80" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80" s="87"/>
+      <c r="I80" s="87"/>
+      <c r="J80" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="K80" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5321,13 +5417,15 @@
         <v>145</v>
       </c>
       <c r="F81" s="11"/>
-      <c r="G81" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J81" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K81" s="11" t="s">
+      <c r="G81" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="H81" s="87"/>
+      <c r="I81" s="87"/>
+      <c r="J81" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="K81" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5336,13 +5434,15 @@
         <v>146</v>
       </c>
       <c r="F82" s="11"/>
-      <c r="G82" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J82" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K82" s="11" t="s">
+      <c r="G82" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="H82" s="87"/>
+      <c r="I82" s="87"/>
+      <c r="J82" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="K82" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5351,13 +5451,15 @@
         <v>147</v>
       </c>
       <c r="F83" s="11"/>
-      <c r="G83" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J83" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K83" s="11" t="s">
+      <c r="G83" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="H83" s="87"/>
+      <c r="I83" s="87"/>
+      <c r="J83" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5371,7 +5473,7 @@
       <c r="I84" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K84" s="11" t="s">
+      <c r="K84" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5382,7 +5484,7 @@
       <c r="H85" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K85" s="11" t="s">
+      <c r="K85" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5393,7 +5495,7 @@
       <c r="H86" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K86" s="11" t="s">
+      <c r="K86" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5401,10 +5503,11 @@
       <c r="C87" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="K87" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M87" s="19" t="s">
+      <c r="K87" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L87" s="86"/>
+      <c r="M87" s="86" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5415,7 +5518,7 @@
       <c r="H88" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K88" s="11" t="s">
+      <c r="K88" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5426,7 +5529,7 @@
       <c r="H89" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K89" s="11" t="s">
+      <c r="K89" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5434,7 +5537,10 @@
       <c r="C90" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="M90" s="19" t="s">
+      <c r="H90" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="M90" s="86" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5448,7 +5554,7 @@
       <c r="I91" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K91" s="11" t="s">
+      <c r="K91" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5460,7 +5566,7 @@
       <c r="I92" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K92" s="11" t="s">
+      <c r="K92" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5472,7 +5578,7 @@
       <c r="I93" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K93" s="11" t="s">
+      <c r="K93" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5484,7 +5590,7 @@
       <c r="I94" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K94" s="11" t="s">
+      <c r="K94" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5496,7 +5602,7 @@
       <c r="I95" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K95" s="11" t="s">
+      <c r="K95" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5507,10 +5613,14 @@
       <c r="D96" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K96" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M96" s="19" t="s">
+      <c r="I96" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="K96" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L96" s="86"/>
+      <c r="M96" s="86" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5528,7 +5638,10 @@
         <v>159</v>
       </c>
       <c r="D98" s="39"/>
-      <c r="M98" s="19" t="s">
+      <c r="I98" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="M98" s="86" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5540,7 +5653,7 @@
       <c r="F99" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K99" s="11" t="s">
+      <c r="K99" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5555,7 +5668,7 @@
       <c r="F100" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K100" s="11" t="s">
+      <c r="K100" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5570,7 +5683,7 @@
       <c r="J101" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K101" s="11" t="s">
+      <c r="K101" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5582,7 +5695,7 @@
       <c r="J102" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K102" s="11" t="s">
+      <c r="K102" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5595,7 +5708,7 @@
         <v>39</v>
       </c>
       <c r="J103" s="19"/>
-      <c r="K103" s="11" t="s">
+      <c r="K103" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5607,7 +5720,7 @@
       <c r="J104" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K104" s="11" t="s">
+      <c r="K104" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5619,7 +5732,7 @@
       <c r="J105" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K105" s="11" t="s">
+      <c r="K105" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5634,7 +5747,7 @@
       <c r="I106" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K106" s="11" t="s">
+      <c r="K106" s="75" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5663,7 +5776,7 @@
         <v>167</v>
       </c>
       <c r="D109" s="39"/>
-      <c r="M109" s="19" t="s">
+      <c r="M109" s="87" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5684,7 +5797,7 @@
       <c r="I111" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K111" s="19" t="s">
+      <c r="K111" s="86" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5696,13 +5809,15 @@
       <c r="I112" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K112" s="19" t="s">
+      <c r="K112" s="86" t="s">
         <v>39</v>
       </c>
       <c r="L112" s="19"/>
     </row>
   </sheetData>
+  <autoFilter ref="E1:Q112"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
